--- a/CKD - SD model/model files/for import/ckd counts for stella array.xlsx
+++ b/CKD - SD model/model files/for import/ckd counts for stella array.xlsx
@@ -1,54 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csucloudservices-my.sharepoint.com/personal/sally_thompson_mlcsu_nhs_uk/Documents/Documents/1210 Renal NHP/Stella/for import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_BF17C8B84F803C64CFD196B1D864C00BF359C7DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E3B2AB8-CD80-453D-9860-98163719986A}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F2296D5CCA686D904927E2638A5A39037F999993" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DFE4FA5-1699-47E0-8AC9-889E2E7EBE76}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25815" yWindow="240" windowWidth="23175" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time vars cvdp" sheetId="1" r:id="rId1"/>
     <sheet name="pops" sheetId="2" r:id="rId2"/>
     <sheet name="cvd mortality" sheetId="3" r:id="rId3"/>
+    <sheet name="calib weights" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="218">
+  <si>
+    <t>stella_var</t>
+  </si>
   <si>
     <t>0.75</t>
   </si>
   <si>
+    <t>1.25</t>
+  </si>
+  <si>
     <t>1.5</t>
   </si>
   <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
     <t>2.5</t>
   </si>
   <si>
+    <t>2.75</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
     <t>3.5</t>
   </si>
   <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>CVDP diag S3-5[East of England]:x</t>
   </si>
   <si>
@@ -481,6 +499,9 @@
     <t>CVDP und S4-5[South West]:y</t>
   </si>
   <si>
+    <t>region</t>
+  </si>
+  <si>
     <t>4.5</t>
   </si>
   <si>
@@ -611,6 +632,51 @@
   </si>
   <si>
     <t>CVD all cause mortality p h th[South West]</t>
+  </si>
+  <si>
+    <t>var_name</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>East of England</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Midlands</t>
+  </si>
+  <si>
+    <t>North East and Yorkshire</t>
+  </si>
+  <si>
+    <t>North West</t>
+  </si>
+  <si>
+    <t>South East</t>
+  </si>
+  <si>
+    <t>South West</t>
+  </si>
+  <si>
+    <t>wt CKD3</t>
+  </si>
+  <si>
+    <t>wt diag S3-5</t>
+  </si>
+  <si>
+    <t>wt CKD 4-5</t>
+  </si>
+  <si>
+    <t>wt und S3</t>
+  </si>
+  <si>
+    <t>wt und S3-5</t>
+  </si>
+  <si>
+    <t>wt und S4-5</t>
   </si>
 </sst>
 </file>
@@ -646,9 +712,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -945,58 +1010,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:N145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.28515625" customWidth="1"/>
+    <col min="1" max="1" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
-        <v>44470</v>
-      </c>
-      <c r="C1" s="1">
-        <v>44652</v>
-      </c>
-      <c r="D1" s="1">
-        <v>44743</v>
-      </c>
-      <c r="E1" s="1">
-        <v>44835</v>
-      </c>
-      <c r="F1" s="1">
-        <v>44927</v>
-      </c>
-      <c r="G1" s="1">
-        <v>45017</v>
-      </c>
-      <c r="H1" s="1">
-        <v>45108</v>
-      </c>
-      <c r="I1" s="1">
-        <v>45200</v>
-      </c>
-      <c r="J1" s="1">
-        <v>45292</v>
-      </c>
-      <c r="K1" s="1">
-        <v>45383</v>
-      </c>
-      <c r="L1" s="1">
-        <v>45474</v>
-      </c>
-      <c r="M1" s="1">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0.75</v>
@@ -1034,10 +1103,13 @@
       <c r="M2">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>174830</v>
@@ -1075,10 +1147,13 @@
       <c r="M3">
         <v>240230</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>245045</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0.75</v>
@@ -1116,10 +1191,13 @@
       <c r="M4">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>1765665</v>
@@ -1157,10 +1235,13 @@
       <c r="M5">
         <v>2183625</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>2210760</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>0.75</v>
@@ -1198,10 +1279,13 @@
       <c r="M6">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>191030</v>
@@ -1239,10 +1323,13 @@
       <c r="M7">
         <v>258965</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>264270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>0.75</v>
@@ -1280,10 +1367,13 @@
       <c r="M8">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>385045</v>
@@ -1321,10 +1411,13 @@
       <c r="M9">
         <v>480035</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>485335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>0.75</v>
@@ -1362,10 +1455,13 @@
       <c r="M10">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>285055</v>
@@ -1403,10 +1499,13 @@
       <c r="M11">
         <v>343615</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>345395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>0.75</v>
@@ -1444,10 +1543,13 @@
       <c r="M12">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>247290</v>
@@ -1485,10 +1587,13 @@
       <c r="M13">
         <v>275385</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>277185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>0.75</v>
@@ -1526,10 +1631,13 @@
       <c r="M14">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>275965</v>
@@ -1567,10 +1675,13 @@
       <c r="M15">
         <v>339445</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>343785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>0.75</v>
@@ -1608,10 +1719,13 @@
       <c r="M16">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>206450</v>
@@ -1649,10 +1763,13 @@
       <c r="M17">
         <v>245950</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>249745</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>0.75</v>
@@ -1690,10 +1807,13 @@
       <c r="M18">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>157496</v>
@@ -1731,10 +1851,13 @@
       <c r="M19">
         <v>216411</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>220749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>0.75</v>
@@ -1772,10 +1895,13 @@
       <c r="M20">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>1590599</v>
@@ -1813,10 +1939,13 @@
       <c r="M21">
         <v>1967118</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <v>1991563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>0.75</v>
@@ -1854,10 +1983,13 @@
       <c r="M22">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>172089</v>
@@ -1895,10 +2027,13 @@
       <c r="M23">
         <v>233289</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>238068</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>0.75</v>
@@ -1936,10 +2071,13 @@
       <c r="M24">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>346868</v>
@@ -1977,10 +2115,13 @@
       <c r="M25">
         <v>432439</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <v>437214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>0.75</v>
@@ -2018,10 +2159,13 @@
       <c r="M26">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>256792</v>
@@ -2059,10 +2203,13 @@
       <c r="M27">
         <v>309546</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27">
+        <v>311149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>0.75</v>
@@ -2100,10 +2247,13 @@
       <c r="M28">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>222771</v>
@@ -2141,10 +2291,13 @@
       <c r="M29">
         <v>248081</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29">
+        <v>249702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>0.75</v>
@@ -2182,10 +2335,13 @@
       <c r="M30">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>248603</v>
@@ -2223,10 +2379,13 @@
       <c r="M31">
         <v>305789</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>309699</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>0.75</v>
@@ -2264,10 +2423,13 @@
       <c r="M32">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B33">
         <v>185980</v>
@@ -2305,10 +2467,13 @@
       <c r="M33">
         <v>221564</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <v>224983</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B34">
         <v>0.75</v>
@@ -2346,10 +2511,13 @@
       <c r="M34">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B35">
         <v>17334</v>
@@ -2387,10 +2555,13 @@
       <c r="M35">
         <v>23819</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <v>24296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B36">
         <v>0.75</v>
@@ -2428,10 +2599,13 @@
       <c r="M36">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B37">
         <v>175066</v>
@@ -2469,10 +2643,13 @@
       <c r="M37">
         <v>216507</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <v>219197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B38">
         <v>0.75</v>
@@ -2510,10 +2687,13 @@
       <c r="M38">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B39">
         <v>18941</v>
@@ -2551,10 +2731,13 @@
       <c r="M39">
         <v>25676</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>26202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B40">
         <v>0.75</v>
@@ -2592,10 +2775,13 @@
       <c r="M40">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>38177</v>
@@ -2633,10 +2819,13 @@
       <c r="M41">
         <v>47596</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <v>48121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B42">
         <v>0.75</v>
@@ -2674,10 +2863,13 @@
       <c r="M42">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B43">
         <v>28263</v>
@@ -2715,10 +2907,13 @@
       <c r="M43">
         <v>34069</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <v>34246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B44">
         <v>0.75</v>
@@ -2756,10 +2951,13 @@
       <c r="M44">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B45">
         <v>24519</v>
@@ -2797,10 +2995,13 @@
       <c r="M45">
         <v>27304</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <v>27483</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B46">
         <v>0.75</v>
@@ -2838,10 +3039,13 @@
       <c r="M46">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B47">
         <v>27362</v>
@@ -2879,10 +3083,13 @@
       <c r="M47">
         <v>33656</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <v>34086</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B48">
         <v>0.75</v>
@@ -2920,10 +3127,13 @@
       <c r="M48">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B49">
         <v>20470</v>
@@ -2961,10 +3171,13 @@
       <c r="M49">
         <v>24386</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <v>24762</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B50">
         <v>0.75</v>
@@ -3002,51 +3215,57 @@
       <c r="M50">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B51">
-        <v>442936</v>
+        <v>322710</v>
       </c>
       <c r="C51">
-        <v>446546</v>
+        <v>320130</v>
       </c>
       <c r="D51">
-        <v>451638</v>
+        <v>320760</v>
       </c>
       <c r="E51">
-        <v>463267</v>
+        <v>323025</v>
       </c>
       <c r="F51">
-        <v>478696</v>
+        <v>336960</v>
       </c>
       <c r="G51">
-        <v>479520</v>
+        <v>333455</v>
       </c>
       <c r="H51">
-        <v>496114</v>
+        <v>342030</v>
       </c>
       <c r="I51">
-        <v>496697</v>
+        <v>344610</v>
       </c>
       <c r="J51">
-        <v>506426</v>
+        <v>346755</v>
       </c>
       <c r="K51">
-        <v>517599</v>
+        <v>346405</v>
       </c>
       <c r="L51">
-        <v>598063</v>
+        <v>367440</v>
       </c>
       <c r="M51">
-        <v>608628</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+        <v>375085</v>
+      </c>
+      <c r="N51">
+        <v>374335</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B52">
         <v>0.75</v>
@@ -3084,51 +3303,57 @@
       <c r="M52">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B53">
-        <v>4473351</v>
+        <v>2728970</v>
       </c>
       <c r="C53">
-        <v>4493721</v>
+        <v>2709435</v>
       </c>
       <c r="D53">
-        <v>4587968</v>
+        <v>2733135</v>
       </c>
       <c r="E53">
-        <v>4679618</v>
+        <v>2751740</v>
       </c>
       <c r="F53">
-        <v>4703573</v>
+        <v>2776725</v>
       </c>
       <c r="G53">
-        <v>4816770</v>
+        <v>2797040</v>
       </c>
       <c r="H53">
-        <v>4909168</v>
+        <v>2832285</v>
       </c>
       <c r="I53">
-        <v>4897387</v>
+        <v>2844610</v>
       </c>
       <c r="J53">
-        <v>4971835</v>
+        <v>2863790</v>
       </c>
       <c r="K53">
-        <v>5050551</v>
+        <v>2859020</v>
       </c>
       <c r="L53">
-        <v>5431403</v>
+        <v>2958040</v>
       </c>
       <c r="M53">
-        <v>5532262</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3018270</v>
+      </c>
+      <c r="N53">
+        <v>3015555</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B54">
         <v>0.75</v>
@@ -3166,51 +3391,57 @@
       <c r="M54">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B55">
-        <v>483979</v>
+        <v>309555</v>
       </c>
       <c r="C55">
-        <v>496380</v>
+        <v>309275</v>
       </c>
       <c r="D55">
-        <v>521475</v>
+        <v>318830</v>
       </c>
       <c r="E55">
-        <v>535739</v>
+        <v>324510</v>
       </c>
       <c r="F55">
-        <v>545138</v>
+        <v>334215</v>
       </c>
       <c r="G55">
-        <v>554727</v>
+        <v>336190</v>
       </c>
       <c r="H55">
-        <v>571449</v>
+        <v>341335</v>
       </c>
       <c r="I55">
-        <v>580531</v>
+        <v>345745</v>
       </c>
       <c r="J55">
-        <v>595770</v>
+        <v>348615</v>
       </c>
       <c r="K55">
-        <v>609426</v>
+        <v>346180</v>
       </c>
       <c r="L55">
-        <v>637219</v>
+        <v>354150</v>
       </c>
       <c r="M55">
-        <v>656094</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>364090</v>
+      </c>
+      <c r="N55">
+        <v>364650</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B56">
         <v>0.75</v>
@@ -3248,51 +3479,57 @@
       <c r="M56">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B57">
-        <v>975520</v>
+        <v>585730</v>
       </c>
       <c r="C57">
-        <v>970060</v>
+        <v>574295</v>
       </c>
       <c r="D57">
-        <v>1011927</v>
+        <v>588180</v>
       </c>
       <c r="E57">
-        <v>1033930</v>
+        <v>587790</v>
       </c>
       <c r="F57">
-        <v>1032651</v>
+        <v>579380</v>
       </c>
       <c r="G57">
-        <v>1059557</v>
+        <v>583045</v>
       </c>
       <c r="H57">
-        <v>1074492</v>
+        <v>588115</v>
       </c>
       <c r="I57">
-        <v>1075696</v>
+        <v>590505</v>
       </c>
       <c r="J57">
-        <v>1086134</v>
+        <v>590315</v>
       </c>
       <c r="K57">
-        <v>1100562</v>
+        <v>588620</v>
       </c>
       <c r="L57">
-        <v>1193365</v>
+        <v>609450</v>
       </c>
       <c r="M57">
-        <v>1216179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+        <v>623515</v>
+      </c>
+      <c r="N57">
+        <v>621745</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B58">
         <v>0.75</v>
@@ -3330,51 +3567,57 @@
       <c r="M58">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B59">
-        <v>722193</v>
+        <v>451065</v>
       </c>
       <c r="C59">
-        <v>722523</v>
+        <v>451835</v>
       </c>
       <c r="D59">
-        <v>717912</v>
+        <v>445965</v>
       </c>
       <c r="E59">
-        <v>730110</v>
+        <v>448220</v>
       </c>
       <c r="F59">
-        <v>737698</v>
+        <v>448850</v>
       </c>
       <c r="G59">
-        <v>752836</v>
+        <v>448355</v>
       </c>
       <c r="H59">
-        <v>763464</v>
+        <v>450490</v>
       </c>
       <c r="I59">
-        <v>751113</v>
+        <v>447760</v>
       </c>
       <c r="J59">
-        <v>766631</v>
+        <v>450335</v>
       </c>
       <c r="K59">
-        <v>778805</v>
+        <v>449455</v>
       </c>
       <c r="L59">
-        <v>857167</v>
+        <v>470210</v>
       </c>
       <c r="M59">
-        <v>870556</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>480690</v>
+      </c>
+      <c r="N59">
+        <v>479610</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B60">
         <v>0.75</v>
@@ -3412,51 +3655,57 @@
       <c r="M60">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B61">
-        <v>626515</v>
+        <v>341655</v>
       </c>
       <c r="C61">
-        <v>630378</v>
+        <v>341360</v>
       </c>
       <c r="D61">
-        <v>640753</v>
+        <v>341935</v>
       </c>
       <c r="E61">
-        <v>650951</v>
+        <v>343695</v>
       </c>
       <c r="F61">
-        <v>633989</v>
+        <v>332970</v>
       </c>
       <c r="G61">
-        <v>660337</v>
+        <v>343535</v>
       </c>
       <c r="H61">
-        <v>672346</v>
+        <v>348950</v>
       </c>
       <c r="I61">
-        <v>662313</v>
+        <v>347335</v>
       </c>
       <c r="J61">
-        <v>667862</v>
+        <v>349045</v>
       </c>
       <c r="K61">
-        <v>674880</v>
+        <v>347150</v>
       </c>
       <c r="L61">
-        <v>689397</v>
+        <v>350985</v>
       </c>
       <c r="M61">
-        <v>697694</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+        <v>354955</v>
+      </c>
+      <c r="N61">
+        <v>355315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B62">
         <v>0.75</v>
@@ -3494,51 +3743,57 @@
       <c r="M62">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B63">
-        <v>699163</v>
+        <v>414565</v>
       </c>
       <c r="C63">
-        <v>699062</v>
+        <v>410035</v>
       </c>
       <c r="D63">
-        <v>713250</v>
+        <v>415300</v>
       </c>
       <c r="E63">
-        <v>723751</v>
+        <v>416595</v>
       </c>
       <c r="F63">
-        <v>734785</v>
+        <v>431280</v>
       </c>
       <c r="G63">
-        <v>754002</v>
+        <v>435500</v>
       </c>
       <c r="H63">
-        <v>770431</v>
+        <v>441510</v>
       </c>
       <c r="I63">
-        <v>773104</v>
+        <v>446430</v>
       </c>
       <c r="J63">
-        <v>790864</v>
+        <v>455095</v>
       </c>
       <c r="K63">
-        <v>805825</v>
+        <v>457070</v>
       </c>
       <c r="L63">
-        <v>842206</v>
+        <v>470445</v>
       </c>
       <c r="M63">
-        <v>859991</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+        <v>478830</v>
+      </c>
+      <c r="N63">
+        <v>479205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B64">
         <v>0.75</v>
@@ -3576,51 +3831,57 @@
       <c r="M64">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B65">
-        <v>523046</v>
+        <v>303690</v>
       </c>
       <c r="C65">
-        <v>528771</v>
+        <v>302505</v>
       </c>
       <c r="D65">
-        <v>531014</v>
+        <v>302165</v>
       </c>
       <c r="E65">
-        <v>541870</v>
+        <v>307905</v>
       </c>
       <c r="F65">
-        <v>540616</v>
+        <v>313070</v>
       </c>
       <c r="G65">
-        <v>555791</v>
+        <v>316960</v>
       </c>
       <c r="H65">
-        <v>560871</v>
+        <v>319855</v>
       </c>
       <c r="I65">
-        <v>557932</v>
+        <v>322225</v>
       </c>
       <c r="J65">
-        <v>558148</v>
+        <v>323630</v>
       </c>
       <c r="K65">
-        <v>563455</v>
+        <v>324140</v>
       </c>
       <c r="L65">
-        <v>613986</v>
+        <v>335360</v>
       </c>
       <c r="M65">
-        <v>623120</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>341105</v>
+      </c>
+      <c r="N65">
+        <v>340695</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B66">
         <v>0.75</v>
@@ -3658,51 +3919,57 @@
       <c r="M66">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B67">
-        <v>420208</v>
+        <v>302400</v>
       </c>
       <c r="C67">
-        <v>423633</v>
+        <v>299760</v>
       </c>
       <c r="D67">
-        <v>428464</v>
+        <v>300218</v>
       </c>
       <c r="E67">
-        <v>439497</v>
+        <v>302075</v>
       </c>
       <c r="F67">
-        <v>454134</v>
+        <v>315248</v>
       </c>
       <c r="G67">
-        <v>454915</v>
+        <v>311788</v>
       </c>
       <c r="H67">
-        <v>470658</v>
+        <v>319673</v>
       </c>
       <c r="I67">
-        <v>471211</v>
+        <v>322183</v>
       </c>
       <c r="J67">
-        <v>480441</v>
+        <v>323981</v>
       </c>
       <c r="K67">
-        <v>491040</v>
+        <v>323290</v>
       </c>
       <c r="L67">
-        <v>567376</v>
+        <v>341391</v>
       </c>
       <c r="M67">
-        <v>577399</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348553</v>
+      </c>
+      <c r="N67">
+        <v>347438</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B68">
         <v>0.75</v>
@@ -3740,51 +4007,57 @@
       <c r="M68">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B69">
-        <v>4243821</v>
+        <v>2534523</v>
       </c>
       <c r="C69">
-        <v>4263145</v>
+        <v>2514746</v>
       </c>
       <c r="D69">
-        <v>4352556</v>
+        <v>2535029</v>
       </c>
       <c r="E69">
-        <v>4439504</v>
+        <v>2550401</v>
       </c>
       <c r="F69">
-        <v>4462229</v>
+        <v>2574136</v>
       </c>
       <c r="G69">
-        <v>4569618</v>
+        <v>2590511</v>
       </c>
       <c r="H69">
-        <v>4657275</v>
+        <v>2622165</v>
       </c>
       <c r="I69">
-        <v>4646099</v>
+        <v>2634609</v>
       </c>
       <c r="J69">
-        <v>4716726</v>
+        <v>2651081</v>
       </c>
       <c r="K69">
-        <v>4791404</v>
+        <v>2643952</v>
       </c>
       <c r="L69">
-        <v>5152714</v>
+        <v>2729099</v>
       </c>
       <c r="M69">
-        <v>5248398</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2784971</v>
+      </c>
+      <c r="N69">
+        <v>2780166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B70">
         <v>0.75</v>
@@ -3822,51 +4095,57 @@
       <c r="M70">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B71">
-        <v>459145</v>
+        <v>288230</v>
       </c>
       <c r="C71">
-        <v>470911</v>
+        <v>287569</v>
       </c>
       <c r="D71">
-        <v>494718</v>
+        <v>296148</v>
       </c>
       <c r="E71">
-        <v>508249</v>
+        <v>301269</v>
       </c>
       <c r="F71">
-        <v>517167</v>
+        <v>310486</v>
       </c>
       <c r="G71">
-        <v>526264</v>
+        <v>312122</v>
       </c>
       <c r="H71">
-        <v>542127</v>
+        <v>316642</v>
       </c>
       <c r="I71">
-        <v>550744</v>
+        <v>320680</v>
       </c>
       <c r="J71">
-        <v>565201</v>
+        <v>323017</v>
       </c>
       <c r="K71">
-        <v>578156</v>
+        <v>320205</v>
       </c>
       <c r="L71">
-        <v>604523</v>
+        <v>327147</v>
       </c>
       <c r="M71">
-        <v>622429</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+        <v>336299</v>
+      </c>
+      <c r="N71">
+        <v>336428</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B72">
         <v>0.75</v>
@@ -3904,51 +4183,57 @@
       <c r="M72">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B73">
-        <v>925465</v>
+        <v>543515</v>
       </c>
       <c r="C73">
-        <v>920286</v>
+        <v>532481</v>
       </c>
       <c r="D73">
-        <v>960004</v>
+        <v>544780</v>
       </c>
       <c r="E73">
-        <v>980879</v>
+        <v>543712</v>
       </c>
       <c r="F73">
-        <v>979665</v>
+        <v>535511</v>
       </c>
       <c r="G73">
-        <v>1005190</v>
+        <v>538263</v>
       </c>
       <c r="H73">
-        <v>1019359</v>
+        <v>542765</v>
       </c>
       <c r="I73">
-        <v>1020501</v>
+        <v>545069</v>
       </c>
       <c r="J73">
-        <v>1030403</v>
+        <v>544557</v>
       </c>
       <c r="K73">
-        <v>1044091</v>
+        <v>542446</v>
       </c>
       <c r="L73">
-        <v>1132133</v>
+        <v>559962</v>
       </c>
       <c r="M73">
-        <v>1153776</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+        <v>573033</v>
+      </c>
+      <c r="N73">
+        <v>570880</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B74">
         <v>0.75</v>
@@ -3986,51 +4271,57 @@
       <c r="M74">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B75">
-        <v>685137</v>
+        <v>419462</v>
       </c>
       <c r="C75">
-        <v>685449</v>
+        <v>420206</v>
       </c>
       <c r="D75">
-        <v>681075</v>
+        <v>414598</v>
       </c>
       <c r="E75">
-        <v>692648</v>
+        <v>416427</v>
       </c>
       <c r="F75">
-        <v>699846</v>
+        <v>416808</v>
       </c>
       <c r="G75">
-        <v>714208</v>
+        <v>415850</v>
       </c>
       <c r="H75">
-        <v>724290</v>
+        <v>417611</v>
       </c>
       <c r="I75">
-        <v>712573</v>
+        <v>415321</v>
       </c>
       <c r="J75">
-        <v>727295</v>
+        <v>417360</v>
       </c>
       <c r="K75">
-        <v>738844</v>
+        <v>416118</v>
       </c>
       <c r="L75">
-        <v>813185</v>
+        <v>434011</v>
       </c>
       <c r="M75">
-        <v>825887</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+        <v>443863</v>
+      </c>
+      <c r="N75">
+        <v>442664</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B76">
         <v>0.75</v>
@@ -4068,51 +4359,57 @@
       <c r="M76">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B77">
-        <v>594368</v>
+        <v>315238</v>
       </c>
       <c r="C77">
-        <v>598033</v>
+        <v>314828</v>
       </c>
       <c r="D77">
-        <v>607876</v>
+        <v>315068</v>
       </c>
       <c r="E77">
-        <v>617550</v>
+        <v>316474</v>
       </c>
       <c r="F77">
-        <v>601458</v>
+        <v>306494</v>
       </c>
       <c r="G77">
-        <v>626455</v>
+        <v>316025</v>
       </c>
       <c r="H77">
-        <v>637848</v>
+        <v>320956</v>
       </c>
       <c r="I77">
-        <v>628330</v>
+        <v>319687</v>
       </c>
       <c r="J77">
-        <v>633593</v>
+        <v>321189</v>
       </c>
       <c r="K77">
-        <v>640251</v>
+        <v>319113</v>
       </c>
       <c r="L77">
-        <v>654023</v>
+        <v>322418</v>
       </c>
       <c r="M77">
-        <v>661895</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+        <v>326050</v>
+      </c>
+      <c r="N77">
+        <v>326260</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B78">
         <v>0.75</v>
@@ -4150,51 +4447,57 @@
       <c r="M78">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B79">
-        <v>663289</v>
+        <v>384415</v>
       </c>
       <c r="C79">
-        <v>663193</v>
+        <v>379979</v>
       </c>
       <c r="D79">
-        <v>676652</v>
+        <v>384695</v>
       </c>
       <c r="E79">
-        <v>686615</v>
+        <v>385637</v>
       </c>
       <c r="F79">
-        <v>697082</v>
+        <v>399682</v>
       </c>
       <c r="G79">
-        <v>715313</v>
+        <v>403218</v>
       </c>
       <c r="H79">
-        <v>730900</v>
+        <v>408594</v>
       </c>
       <c r="I79">
-        <v>733436</v>
+        <v>413332</v>
       </c>
       <c r="J79">
-        <v>750284</v>
+        <v>421269</v>
       </c>
       <c r="K79">
-        <v>764477</v>
+        <v>422737</v>
       </c>
       <c r="L79">
-        <v>798992</v>
+        <v>434708</v>
       </c>
       <c r="M79">
-        <v>815865</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+        <v>442370</v>
+      </c>
+      <c r="N79">
+        <v>442394</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B80">
         <v>0.75</v>
@@ -4232,51 +4535,57 @@
       <c r="M80">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B81">
-        <v>496208</v>
+        <v>281264</v>
       </c>
       <c r="C81">
-        <v>501640</v>
+        <v>279924</v>
       </c>
       <c r="D81">
-        <v>503767</v>
+        <v>279521</v>
       </c>
       <c r="E81">
-        <v>514066</v>
+        <v>284807</v>
       </c>
       <c r="F81">
-        <v>512876</v>
+        <v>289907</v>
       </c>
       <c r="G81">
-        <v>527273</v>
+        <v>293246</v>
       </c>
       <c r="H81">
-        <v>532092</v>
+        <v>295924</v>
       </c>
       <c r="I81">
-        <v>529304</v>
+        <v>298338</v>
       </c>
       <c r="J81">
-        <v>529509</v>
+        <v>299708</v>
       </c>
       <c r="K81">
-        <v>534544</v>
+        <v>300042</v>
       </c>
       <c r="L81">
-        <v>582482</v>
+        <v>309460</v>
       </c>
       <c r="M81">
-        <v>591147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+        <v>314805</v>
+      </c>
+      <c r="N81">
+        <v>314103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B82">
         <v>0.75</v>
@@ -4314,51 +4623,57 @@
       <c r="M82">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B83">
-        <v>22727</v>
+        <v>20310</v>
       </c>
       <c r="C83">
-        <v>22913</v>
+        <v>20370</v>
       </c>
       <c r="D83">
-        <v>23174</v>
+        <v>20542</v>
       </c>
       <c r="E83">
-        <v>23771</v>
+        <v>20950</v>
       </c>
       <c r="F83">
-        <v>24562</v>
+        <v>21712</v>
       </c>
       <c r="G83">
-        <v>24605</v>
+        <v>21667</v>
       </c>
       <c r="H83">
-        <v>25456</v>
+        <v>22357</v>
       </c>
       <c r="I83">
-        <v>25486</v>
+        <v>22427</v>
       </c>
       <c r="J83">
-        <v>25985</v>
+        <v>22774</v>
       </c>
       <c r="K83">
-        <v>26558</v>
+        <v>23115</v>
       </c>
       <c r="L83">
-        <v>30687</v>
+        <v>26049</v>
       </c>
       <c r="M83">
-        <v>31229</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+        <v>26532</v>
+      </c>
+      <c r="N83">
+        <v>26897</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B84">
         <v>0.75</v>
@@ -4396,51 +4711,57 @@
       <c r="M84">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B85">
-        <v>229531</v>
+        <v>194447</v>
       </c>
       <c r="C85">
-        <v>230576</v>
+        <v>194689</v>
       </c>
       <c r="D85">
-        <v>235412</v>
+        <v>198106</v>
       </c>
       <c r="E85">
-        <v>240115</v>
+        <v>201339</v>
       </c>
       <c r="F85">
-        <v>241344</v>
+        <v>202589</v>
       </c>
       <c r="G85">
-        <v>247152</v>
+        <v>206529</v>
       </c>
       <c r="H85">
-        <v>251893</v>
+        <v>210120</v>
       </c>
       <c r="I85">
-        <v>251288</v>
+        <v>210001</v>
       </c>
       <c r="J85">
-        <v>255108</v>
+        <v>212709</v>
       </c>
       <c r="K85">
-        <v>259147</v>
+        <v>215068</v>
       </c>
       <c r="L85">
-        <v>278689</v>
+        <v>228941</v>
       </c>
       <c r="M85">
-        <v>283864</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+        <v>233299</v>
+      </c>
+      <c r="N85">
+        <v>235389</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B86">
         <v>0.75</v>
@@ -4478,51 +4799,57 @@
       <c r="M86">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B87">
-        <v>24833</v>
+        <v>21325</v>
       </c>
       <c r="C87">
-        <v>25470</v>
+        <v>21706</v>
       </c>
       <c r="D87">
-        <v>26757</v>
+        <v>22682</v>
       </c>
       <c r="E87">
-        <v>27489</v>
+        <v>23241</v>
       </c>
       <c r="F87">
-        <v>27971</v>
+        <v>23729</v>
       </c>
       <c r="G87">
-        <v>28463</v>
+        <v>24068</v>
       </c>
       <c r="H87">
-        <v>29321</v>
+        <v>24693</v>
       </c>
       <c r="I87">
-        <v>29787</v>
+        <v>25065</v>
       </c>
       <c r="J87">
-        <v>30569</v>
+        <v>25598</v>
       </c>
       <c r="K87">
-        <v>31270</v>
+        <v>25975</v>
       </c>
       <c r="L87">
-        <v>32696</v>
+        <v>27003</v>
       </c>
       <c r="M87">
-        <v>33665</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+        <v>27791</v>
+      </c>
+      <c r="N87">
+        <v>28222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B88">
         <v>0.75</v>
@@ -4560,51 +4887,57 @@
       <c r="M88">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B89">
-        <v>50055</v>
+        <v>42215</v>
       </c>
       <c r="C89">
-        <v>49774</v>
+        <v>41814</v>
       </c>
       <c r="D89">
-        <v>51923</v>
+        <v>43400</v>
       </c>
       <c r="E89">
-        <v>53052</v>
+        <v>44078</v>
       </c>
       <c r="F89">
-        <v>52986</v>
+        <v>43869</v>
       </c>
       <c r="G89">
-        <v>54367</v>
+        <v>44782</v>
       </c>
       <c r="H89">
-        <v>55133</v>
+        <v>45350</v>
       </c>
       <c r="I89">
-        <v>55195</v>
+        <v>45436</v>
       </c>
       <c r="J89">
-        <v>55730</v>
+        <v>45758</v>
       </c>
       <c r="K89">
-        <v>56471</v>
+        <v>46174</v>
       </c>
       <c r="L89">
-        <v>61232</v>
+        <v>49488</v>
       </c>
       <c r="M89">
-        <v>62403</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+        <v>50482</v>
+      </c>
+      <c r="N89">
+        <v>50865</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B90">
         <v>0.75</v>
@@ -4642,51 +4975,57 @@
       <c r="M90">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B91">
-        <v>37056</v>
+        <v>31603</v>
       </c>
       <c r="C91">
-        <v>37073</v>
+        <v>31629</v>
       </c>
       <c r="D91">
-        <v>36837</v>
+        <v>31367</v>
       </c>
       <c r="E91">
-        <v>37462</v>
+        <v>31793</v>
       </c>
       <c r="F91">
-        <v>37852</v>
+        <v>32042</v>
       </c>
       <c r="G91">
-        <v>38629</v>
+        <v>32505</v>
       </c>
       <c r="H91">
-        <v>39174</v>
+        <v>32879</v>
       </c>
       <c r="I91">
-        <v>38540</v>
+        <v>32439</v>
       </c>
       <c r="J91">
-        <v>39336</v>
+        <v>32975</v>
       </c>
       <c r="K91">
-        <v>39961</v>
+        <v>33337</v>
       </c>
       <c r="L91">
-        <v>43982</v>
+        <v>36199</v>
       </c>
       <c r="M91">
-        <v>44669</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+        <v>36827</v>
+      </c>
+      <c r="N91">
+        <v>36946</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B92">
         <v>0.75</v>
@@ -4724,51 +5063,57 @@
       <c r="M92">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B93">
-        <v>32147</v>
+        <v>26417</v>
       </c>
       <c r="C93">
-        <v>32345</v>
+        <v>26532</v>
       </c>
       <c r="D93">
-        <v>32878</v>
+        <v>26867</v>
       </c>
       <c r="E93">
-        <v>33401</v>
+        <v>27221</v>
       </c>
       <c r="F93">
-        <v>32530</v>
+        <v>26476</v>
       </c>
       <c r="G93">
-        <v>33882</v>
+        <v>27510</v>
       </c>
       <c r="H93">
-        <v>34499</v>
+        <v>27994</v>
       </c>
       <c r="I93">
-        <v>33984</v>
+        <v>27648</v>
       </c>
       <c r="J93">
-        <v>34268</v>
+        <v>27856</v>
       </c>
       <c r="K93">
-        <v>34629</v>
+        <v>28037</v>
       </c>
       <c r="L93">
-        <v>35373</v>
+        <v>28567</v>
       </c>
       <c r="M93">
-        <v>35799</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+        <v>28905</v>
+      </c>
+      <c r="N93">
+        <v>29055</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B94">
         <v>0.75</v>
@@ -4806,51 +5151,57 @@
       <c r="M94">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B95">
-        <v>35875</v>
+        <v>30150</v>
       </c>
       <c r="C95">
-        <v>35869</v>
+        <v>30056</v>
       </c>
       <c r="D95">
-        <v>36597</v>
+        <v>30605</v>
       </c>
       <c r="E95">
-        <v>37136</v>
+        <v>30958</v>
       </c>
       <c r="F95">
-        <v>37702</v>
+        <v>31598</v>
       </c>
       <c r="G95">
-        <v>38688</v>
+        <v>32282</v>
       </c>
       <c r="H95">
-        <v>39531</v>
+        <v>32916</v>
       </c>
       <c r="I95">
-        <v>39669</v>
+        <v>33098</v>
       </c>
       <c r="J95">
-        <v>40580</v>
+        <v>33826</v>
       </c>
       <c r="K95">
-        <v>41347</v>
+        <v>34333</v>
       </c>
       <c r="L95">
-        <v>43214</v>
+        <v>35737</v>
       </c>
       <c r="M95">
-        <v>44127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+        <v>36460</v>
+      </c>
+      <c r="N95">
+        <v>36811</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B96">
         <v>0.75</v>
@@ -4888,51 +5239,57 @@
       <c r="M96">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B97">
-        <v>26838</v>
+        <v>22426</v>
       </c>
       <c r="C97">
-        <v>27132</v>
+        <v>22581</v>
       </c>
       <c r="D97">
-        <v>27247</v>
+        <v>22644</v>
       </c>
       <c r="E97">
-        <v>27804</v>
+        <v>23098</v>
       </c>
       <c r="F97">
-        <v>27739</v>
+        <v>23163</v>
       </c>
       <c r="G97">
-        <v>28518</v>
+        <v>23714</v>
       </c>
       <c r="H97">
-        <v>28779</v>
+        <v>23931</v>
       </c>
       <c r="I97">
-        <v>28628</v>
+        <v>23887</v>
       </c>
       <c r="J97">
-        <v>28639</v>
+        <v>23922</v>
       </c>
       <c r="K97">
-        <v>28911</v>
+        <v>24098</v>
       </c>
       <c r="L97">
-        <v>31504</v>
+        <v>25900</v>
       </c>
       <c r="M97">
-        <v>31973</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+        <v>26300</v>
+      </c>
+      <c r="N97">
+        <v>26592</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B98">
         <v>0.75</v>
@@ -4970,51 +5327,57 @@
       <c r="M98">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B99">
-        <v>285440</v>
+        <v>147880</v>
       </c>
       <c r="C99">
-        <v>287767</v>
+        <v>143875</v>
       </c>
       <c r="D99">
-        <v>291048</v>
+        <v>142495</v>
       </c>
       <c r="E99">
-        <v>298542</v>
+        <v>140170</v>
       </c>
       <c r="F99">
-        <v>308485</v>
+        <v>148015</v>
       </c>
       <c r="G99">
-        <v>309016</v>
+        <v>144185</v>
       </c>
       <c r="H99">
-        <v>319710</v>
+        <v>146210</v>
       </c>
       <c r="I99">
-        <v>320085</v>
+        <v>148560</v>
       </c>
       <c r="J99">
-        <v>326355</v>
+        <v>146865</v>
       </c>
       <c r="K99">
-        <v>333555</v>
+        <v>142105</v>
       </c>
       <c r="L99">
-        <v>385409</v>
+        <v>131380</v>
       </c>
       <c r="M99">
-        <v>392217</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+        <v>134855</v>
+      </c>
+      <c r="N99">
+        <v>129290</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B100">
         <v>0.75</v>
@@ -5052,51 +5415,57 @@
       <c r="M100">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B101">
-        <v>2882752</v>
+        <v>963305</v>
       </c>
       <c r="C101">
-        <v>2895879</v>
+        <v>935730</v>
       </c>
       <c r="D101">
-        <v>2956614</v>
+        <v>922230</v>
       </c>
       <c r="E101">
-        <v>3015676</v>
+        <v>904660</v>
       </c>
       <c r="F101">
-        <v>3031113</v>
+        <v>920190</v>
       </c>
       <c r="G101">
-        <v>3104061</v>
+        <v>895825</v>
       </c>
       <c r="H101">
-        <v>3163605</v>
+        <v>894600</v>
       </c>
       <c r="I101">
-        <v>3156013</v>
+        <v>911575</v>
       </c>
       <c r="J101">
-        <v>3203989</v>
+        <v>901370</v>
       </c>
       <c r="K101">
-        <v>3254716</v>
+        <v>865530</v>
       </c>
       <c r="L101">
-        <v>3500147</v>
+        <v>814225</v>
       </c>
       <c r="M101">
-        <v>3565144</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+        <v>834645</v>
+      </c>
+      <c r="N101">
+        <v>804795</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B102">
         <v>0.75</v>
@@ -5134,51 +5503,57 @@
       <c r="M102">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B103">
-        <v>311889</v>
+        <v>118525</v>
       </c>
       <c r="C103">
-        <v>319881</v>
+        <v>113350</v>
       </c>
       <c r="D103">
-        <v>336053</v>
+        <v>113000</v>
       </c>
       <c r="E103">
-        <v>345245</v>
+        <v>113050</v>
       </c>
       <c r="F103">
-        <v>351302</v>
+        <v>119045</v>
       </c>
       <c r="G103">
-        <v>357482</v>
+        <v>117235</v>
       </c>
       <c r="H103">
-        <v>368257</v>
+        <v>115780</v>
       </c>
       <c r="I103">
-        <v>374111</v>
+        <v>116605</v>
       </c>
       <c r="J103">
-        <v>383931</v>
+        <v>113460</v>
       </c>
       <c r="K103">
-        <v>392731</v>
+        <v>105635</v>
       </c>
       <c r="L103">
-        <v>410642</v>
+        <v>102635</v>
       </c>
       <c r="M103">
-        <v>422805</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+        <v>105125</v>
+      </c>
+      <c r="N103">
+        <v>100380</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B104">
         <v>0.75</v>
@@ -5216,51 +5591,57 @@
       <c r="M104">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B105">
-        <v>628652</v>
+        <v>200685</v>
       </c>
       <c r="C105">
-        <v>625134</v>
+        <v>191405</v>
       </c>
       <c r="D105">
-        <v>652114</v>
+        <v>188765</v>
       </c>
       <c r="E105">
-        <v>666294</v>
+        <v>179690</v>
       </c>
       <c r="F105">
-        <v>665469</v>
+        <v>171785</v>
       </c>
       <c r="G105">
-        <v>682808</v>
+        <v>164830</v>
       </c>
       <c r="H105">
-        <v>692433</v>
+        <v>164005</v>
       </c>
       <c r="I105">
-        <v>693208</v>
+        <v>165920</v>
       </c>
       <c r="J105">
-        <v>699935</v>
+        <v>161610</v>
       </c>
       <c r="K105">
-        <v>709233</v>
+        <v>154220</v>
       </c>
       <c r="L105">
-        <v>769038</v>
+        <v>138420</v>
       </c>
       <c r="M105">
-        <v>783740</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+        <v>143480</v>
+      </c>
+      <c r="N105">
+        <v>136410</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B106">
         <v>0.75</v>
@@ -5298,51 +5679,57 @@
       <c r="M106">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B107">
-        <v>465401</v>
+        <v>166010</v>
       </c>
       <c r="C107">
-        <v>465614</v>
+        <v>166650</v>
       </c>
       <c r="D107">
-        <v>462642</v>
+        <v>162600</v>
       </c>
       <c r="E107">
-        <v>470504</v>
+        <v>160040</v>
       </c>
       <c r="F107">
-        <v>475393</v>
+        <v>157675</v>
       </c>
       <c r="G107">
-        <v>485149</v>
+        <v>151205</v>
       </c>
       <c r="H107">
-        <v>491998</v>
+        <v>149145</v>
       </c>
       <c r="I107">
-        <v>484038</v>
+        <v>151290</v>
       </c>
       <c r="J107">
-        <v>494038</v>
+        <v>147740</v>
       </c>
       <c r="K107">
-        <v>501883</v>
+        <v>142055</v>
       </c>
       <c r="L107">
-        <v>552382</v>
+        <v>131880</v>
       </c>
       <c r="M107">
-        <v>561011</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+        <v>137075</v>
+      </c>
+      <c r="N107">
+        <v>134215</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B108">
         <v>0.75</v>
@@ -5380,51 +5767,57 @@
       <c r="M108">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B109">
-        <v>403744</v>
+        <v>94365</v>
       </c>
       <c r="C109">
-        <v>406233</v>
+        <v>92545</v>
       </c>
       <c r="D109">
-        <v>412919</v>
+        <v>89025</v>
       </c>
       <c r="E109">
-        <v>419491</v>
+        <v>86760</v>
       </c>
       <c r="F109">
-        <v>408560</v>
+        <v>82730</v>
       </c>
       <c r="G109">
-        <v>425540</v>
+        <v>82895</v>
       </c>
       <c r="H109">
-        <v>433279</v>
+        <v>83570</v>
       </c>
       <c r="I109">
-        <v>426813</v>
+        <v>85915</v>
       </c>
       <c r="J109">
-        <v>430389</v>
+        <v>85435</v>
       </c>
       <c r="K109">
-        <v>434911</v>
+        <v>80770</v>
       </c>
       <c r="L109">
-        <v>444266</v>
+        <v>78875</v>
       </c>
       <c r="M109">
-        <v>449613</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+        <v>79570</v>
+      </c>
+      <c r="N109">
+        <v>78130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B110">
         <v>0.75</v>
@@ -5462,51 +5855,57 @@
       <c r="M110">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B111">
-        <v>450560</v>
+        <v>138600</v>
       </c>
       <c r="C111">
-        <v>450495</v>
+        <v>134110</v>
       </c>
       <c r="D111">
-        <v>459638</v>
+        <v>133775</v>
       </c>
       <c r="E111">
-        <v>466406</v>
+        <v>130925</v>
       </c>
       <c r="F111">
-        <v>473516</v>
+        <v>141255</v>
       </c>
       <c r="G111">
-        <v>485900</v>
+        <v>137890</v>
       </c>
       <c r="H111">
-        <v>496487</v>
+        <v>137415</v>
       </c>
       <c r="I111">
-        <v>498210</v>
+        <v>141280</v>
       </c>
       <c r="J111">
-        <v>509655</v>
+        <v>142935</v>
       </c>
       <c r="K111">
-        <v>519296</v>
+        <v>139005</v>
       </c>
       <c r="L111">
-        <v>542741</v>
+        <v>138020</v>
       </c>
       <c r="M111">
-        <v>554202</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+        <v>139385</v>
+      </c>
+      <c r="N111">
+        <v>135420</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B112">
         <v>0.75</v>
@@ -5544,51 +5943,57 @@
       <c r="M112">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B113">
-        <v>337065</v>
+        <v>97240</v>
       </c>
       <c r="C113">
-        <v>340755</v>
+        <v>93795</v>
       </c>
       <c r="D113">
-        <v>342200</v>
+        <v>92570</v>
       </c>
       <c r="E113">
-        <v>349196</v>
+        <v>94025</v>
       </c>
       <c r="F113">
-        <v>348388</v>
+        <v>99685</v>
       </c>
       <c r="G113">
-        <v>358167</v>
+        <v>97585</v>
       </c>
       <c r="H113">
-        <v>361441</v>
+        <v>98475</v>
       </c>
       <c r="I113">
-        <v>359547</v>
+        <v>102005</v>
       </c>
       <c r="J113">
-        <v>359686</v>
+        <v>103325</v>
       </c>
       <c r="K113">
-        <v>363106</v>
+        <v>101740</v>
       </c>
       <c r="L113">
-        <v>395670</v>
+        <v>93015</v>
       </c>
       <c r="M113">
-        <v>401556</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+        <v>95155</v>
+      </c>
+      <c r="N113">
+        <v>90950</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B114">
         <v>0.75</v>
@@ -5626,51 +6031,57 @@
       <c r="M114">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B115">
-        <v>262713</v>
+        <v>144905</v>
       </c>
       <c r="C115">
-        <v>264854</v>
+        <v>140980</v>
       </c>
       <c r="D115">
-        <v>267874</v>
+        <v>139628</v>
       </c>
       <c r="E115">
-        <v>274772</v>
+        <v>137350</v>
       </c>
       <c r="F115">
-        <v>283923</v>
+        <v>145037</v>
       </c>
       <c r="G115">
-        <v>284411</v>
+        <v>141284</v>
       </c>
       <c r="H115">
-        <v>294254</v>
+        <v>143268</v>
       </c>
       <c r="I115">
-        <v>294600</v>
+        <v>145571</v>
       </c>
       <c r="J115">
-        <v>300370</v>
+        <v>143910</v>
       </c>
       <c r="K115">
-        <v>306997</v>
+        <v>139246</v>
       </c>
       <c r="L115">
-        <v>354722</v>
+        <v>128737</v>
       </c>
       <c r="M115">
-        <v>360988</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+        <v>132142</v>
+      </c>
+      <c r="N115">
+        <v>126689</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B116">
         <v>0.75</v>
@@ -5708,51 +6119,57 @@
       <c r="M116">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B117">
-        <v>2653222</v>
+        <v>943924</v>
       </c>
       <c r="C117">
-        <v>2665303</v>
+        <v>916904</v>
       </c>
       <c r="D117">
-        <v>2721203</v>
+        <v>903676</v>
       </c>
       <c r="E117">
-        <v>2775562</v>
+        <v>886459</v>
       </c>
       <c r="F117">
-        <v>2789770</v>
+        <v>901677</v>
       </c>
       <c r="G117">
-        <v>2856909</v>
+        <v>877802</v>
       </c>
       <c r="H117">
-        <v>2911712</v>
+        <v>876601</v>
       </c>
       <c r="I117">
-        <v>2904724</v>
+        <v>893235</v>
       </c>
       <c r="J117">
-        <v>2948880</v>
+        <v>883235</v>
       </c>
       <c r="K117">
-        <v>2995569</v>
+        <v>848116</v>
       </c>
       <c r="L117">
-        <v>3221458</v>
+        <v>797844</v>
       </c>
       <c r="M117">
-        <v>3281280</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+        <v>817853</v>
+      </c>
+      <c r="N117">
+        <v>788603</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B118">
         <v>0.75</v>
@@ -5790,51 +6207,57 @@
       <c r="M118">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B119">
-        <v>287056</v>
+        <v>116140</v>
       </c>
       <c r="C119">
-        <v>294412</v>
+        <v>111070</v>
       </c>
       <c r="D119">
-        <v>309296</v>
+        <v>110727</v>
       </c>
       <c r="E119">
-        <v>317756</v>
+        <v>110776</v>
       </c>
       <c r="F119">
-        <v>323331</v>
+        <v>116650</v>
       </c>
       <c r="G119">
-        <v>329018</v>
+        <v>114876</v>
       </c>
       <c r="H119">
-        <v>338936</v>
+        <v>113451</v>
       </c>
       <c r="I119">
-        <v>344323</v>
+        <v>114259</v>
       </c>
       <c r="J119">
-        <v>353362</v>
+        <v>111177</v>
       </c>
       <c r="K119">
-        <v>361461</v>
+        <v>103510</v>
       </c>
       <c r="L119">
-        <v>377945</v>
+        <v>100570</v>
       </c>
       <c r="M119">
-        <v>389140</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+        <v>103010</v>
+      </c>
+      <c r="N119">
+        <v>98360</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B120">
         <v>0.75</v>
@@ -5872,51 +6295,57 @@
       <c r="M120">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B121">
-        <v>578598</v>
+        <v>196647</v>
       </c>
       <c r="C121">
-        <v>575359</v>
+        <v>187554</v>
       </c>
       <c r="D121">
-        <v>600191</v>
+        <v>184967</v>
       </c>
       <c r="E121">
-        <v>613242</v>
+        <v>176075</v>
       </c>
       <c r="F121">
-        <v>612483</v>
+        <v>168329</v>
       </c>
       <c r="G121">
-        <v>628441</v>
+        <v>161514</v>
       </c>
       <c r="H121">
-        <v>637300</v>
+        <v>160705</v>
       </c>
       <c r="I121">
-        <v>638013</v>
+        <v>162582</v>
       </c>
       <c r="J121">
-        <v>644204</v>
+        <v>158359</v>
       </c>
       <c r="K121">
-        <v>652762</v>
+        <v>151117</v>
       </c>
       <c r="L121">
-        <v>707805</v>
+        <v>135635</v>
       </c>
       <c r="M121">
-        <v>721337</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+        <v>140593</v>
+      </c>
+      <c r="N121">
+        <v>133666</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B122">
         <v>0.75</v>
@@ -5954,51 +6383,57 @@
       <c r="M122">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B123">
-        <v>428345</v>
+        <v>162670</v>
       </c>
       <c r="C123">
-        <v>428541</v>
+        <v>163297</v>
       </c>
       <c r="D123">
-        <v>425806</v>
+        <v>159329</v>
       </c>
       <c r="E123">
-        <v>433041</v>
+        <v>156820</v>
       </c>
       <c r="F123">
-        <v>437542</v>
+        <v>154503</v>
       </c>
       <c r="G123">
-        <v>446520</v>
+        <v>148163</v>
       </c>
       <c r="H123">
-        <v>452824</v>
+        <v>146144</v>
       </c>
       <c r="I123">
-        <v>445498</v>
+        <v>148246</v>
       </c>
       <c r="J123">
-        <v>454702</v>
+        <v>144768</v>
       </c>
       <c r="K123">
-        <v>461922</v>
+        <v>139197</v>
       </c>
       <c r="L123">
-        <v>508400</v>
+        <v>129227</v>
       </c>
       <c r="M123">
-        <v>516342</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+        <v>134317</v>
+      </c>
+      <c r="N123">
+        <v>131515</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B124">
         <v>0.75</v>
@@ -6036,51 +6471,57 @@
       <c r="M124">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B125">
-        <v>371597</v>
+        <v>92466</v>
       </c>
       <c r="C125">
-        <v>373888</v>
+        <v>90683</v>
       </c>
       <c r="D125">
-        <v>380042</v>
+        <v>87234</v>
       </c>
       <c r="E125">
-        <v>386090</v>
+        <v>85014</v>
       </c>
       <c r="F125">
-        <v>376030</v>
+        <v>81066</v>
       </c>
       <c r="G125">
-        <v>391657</v>
+        <v>81227</v>
       </c>
       <c r="H125">
-        <v>398780</v>
+        <v>81889</v>
       </c>
       <c r="I125">
-        <v>392829</v>
+        <v>84186</v>
       </c>
       <c r="J125">
-        <v>396120</v>
+        <v>83716</v>
       </c>
       <c r="K125">
-        <v>400283</v>
+        <v>79145</v>
       </c>
       <c r="L125">
-        <v>408893</v>
+        <v>77288</v>
       </c>
       <c r="M125">
-        <v>413814</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+        <v>77969</v>
+      </c>
+      <c r="N125">
+        <v>76558</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B126">
         <v>0.75</v>
@@ -6118,51 +6559,57 @@
       <c r="M126">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B127">
-        <v>414686</v>
+        <v>135811</v>
       </c>
       <c r="C127">
-        <v>414626</v>
+        <v>131412</v>
       </c>
       <c r="D127">
-        <v>423041</v>
+        <v>131084</v>
       </c>
       <c r="E127">
-        <v>429269</v>
+        <v>128291</v>
       </c>
       <c r="F127">
-        <v>435813</v>
+        <v>138413</v>
       </c>
       <c r="G127">
-        <v>447211</v>
+        <v>135116</v>
       </c>
       <c r="H127">
-        <v>456956</v>
+        <v>134650</v>
       </c>
       <c r="I127">
-        <v>458541</v>
+        <v>138438</v>
       </c>
       <c r="J127">
-        <v>469075</v>
+        <v>140059</v>
       </c>
       <c r="K127">
-        <v>477948</v>
+        <v>136208</v>
       </c>
       <c r="L127">
-        <v>499527</v>
+        <v>135243</v>
       </c>
       <c r="M127">
-        <v>510076</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+        <v>136581</v>
+      </c>
+      <c r="N127">
+        <v>132695</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B128">
         <v>0.75</v>
@@ -6200,51 +6647,57 @@
       <c r="M128">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B129">
-        <v>310227</v>
+        <v>95284</v>
       </c>
       <c r="C129">
-        <v>313623</v>
+        <v>91908</v>
       </c>
       <c r="D129">
-        <v>314953</v>
+        <v>90708</v>
       </c>
       <c r="E129">
-        <v>321392</v>
+        <v>92133</v>
       </c>
       <c r="F129">
-        <v>320648</v>
+        <v>97679</v>
       </c>
       <c r="G129">
-        <v>329649</v>
+        <v>95622</v>
       </c>
       <c r="H129">
-        <v>332662</v>
+        <v>96494</v>
       </c>
       <c r="I129">
-        <v>330919</v>
+        <v>99953</v>
       </c>
       <c r="J129">
-        <v>331047</v>
+        <v>101246</v>
       </c>
       <c r="K129">
-        <v>334195</v>
+        <v>99693</v>
       </c>
       <c r="L129">
-        <v>364166</v>
+        <v>91144</v>
       </c>
       <c r="M129">
-        <v>369583</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+        <v>93241</v>
+      </c>
+      <c r="N129">
+        <v>89120</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B130">
         <v>0.75</v>
@@ -6282,51 +6735,57 @@
       <c r="M130">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B131">
-        <v>5393</v>
+        <v>2975</v>
       </c>
       <c r="C131">
-        <v>5437</v>
+        <v>2895</v>
       </c>
       <c r="D131">
-        <v>5499</v>
+        <v>2867</v>
       </c>
       <c r="E131">
-        <v>5640</v>
+        <v>2820</v>
       </c>
       <c r="F131">
-        <v>5828</v>
+        <v>2978</v>
       </c>
       <c r="G131">
-        <v>5838</v>
+        <v>2901</v>
       </c>
       <c r="H131">
-        <v>6040</v>
+        <v>2942</v>
       </c>
       <c r="I131">
-        <v>6047</v>
+        <v>2989</v>
       </c>
       <c r="J131">
-        <v>6166</v>
+        <v>2955</v>
       </c>
       <c r="K131">
-        <v>6302</v>
+        <v>2859</v>
       </c>
       <c r="L131">
-        <v>7282</v>
+        <v>2643</v>
       </c>
       <c r="M131">
-        <v>7410</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2713</v>
+      </c>
+      <c r="N131">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B132">
         <v>0.75</v>
@@ -6364,51 +6823,57 @@
       <c r="M132">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B133">
-        <v>54465</v>
+        <v>19381</v>
       </c>
       <c r="C133">
-        <v>54713</v>
+        <v>18826</v>
       </c>
       <c r="D133">
-        <v>55860</v>
+        <v>18554</v>
       </c>
       <c r="E133">
-        <v>56976</v>
+        <v>18201</v>
       </c>
       <c r="F133">
-        <v>57268</v>
+        <v>18513</v>
       </c>
       <c r="G133">
-        <v>58646</v>
+        <v>18023</v>
       </c>
       <c r="H133">
-        <v>59771</v>
+        <v>17999</v>
       </c>
       <c r="I133">
-        <v>59628</v>
+        <v>18340</v>
       </c>
       <c r="J133">
-        <v>60534</v>
+        <v>18135</v>
       </c>
       <c r="K133">
-        <v>61493</v>
+        <v>17414</v>
       </c>
       <c r="L133">
-        <v>66130</v>
+        <v>16381</v>
       </c>
       <c r="M133">
-        <v>67358</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16792</v>
+      </c>
+      <c r="N133">
+        <v>16192</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B134">
         <v>0.75</v>
@@ -6446,51 +6911,57 @@
       <c r="M134">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B135">
-        <v>5893</v>
+        <v>2385</v>
       </c>
       <c r="C135">
-        <v>6044</v>
+        <v>2280</v>
       </c>
       <c r="D135">
-        <v>6349</v>
+        <v>2273</v>
       </c>
       <c r="E135">
-        <v>6523</v>
+        <v>2274</v>
       </c>
       <c r="F135">
-        <v>6637</v>
+        <v>2395</v>
       </c>
       <c r="G135">
-        <v>6754</v>
+        <v>2359</v>
       </c>
       <c r="H135">
-        <v>6958</v>
+        <v>2329</v>
       </c>
       <c r="I135">
-        <v>7068</v>
+        <v>2346</v>
       </c>
       <c r="J135">
-        <v>7254</v>
+        <v>2283</v>
       </c>
       <c r="K135">
-        <v>7420</v>
+        <v>2125</v>
       </c>
       <c r="L135">
-        <v>7758</v>
+        <v>2065</v>
       </c>
       <c r="M135">
-        <v>7988</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2115</v>
+      </c>
+      <c r="N135">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B136">
         <v>0.75</v>
@@ -6528,51 +6999,57 @@
       <c r="M136">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B137">
-        <v>11877</v>
+        <v>4038</v>
       </c>
       <c r="C137">
-        <v>11811</v>
+        <v>3851</v>
       </c>
       <c r="D137">
-        <v>12321</v>
+        <v>3798</v>
       </c>
       <c r="E137">
-        <v>12589</v>
+        <v>3615</v>
       </c>
       <c r="F137">
-        <v>12573</v>
+        <v>3456</v>
       </c>
       <c r="G137">
-        <v>12901</v>
+        <v>3316</v>
       </c>
       <c r="H137">
-        <v>13082</v>
+        <v>3300</v>
       </c>
       <c r="I137">
-        <v>13097</v>
+        <v>3338</v>
       </c>
       <c r="J137">
-        <v>13224</v>
+        <v>3251</v>
       </c>
       <c r="K137">
-        <v>13400</v>
+        <v>3103</v>
       </c>
       <c r="L137">
-        <v>14530</v>
+        <v>2785</v>
       </c>
       <c r="M137">
-        <v>14808</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2887</v>
+      </c>
+      <c r="N137">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B138">
         <v>0.75</v>
@@ -6610,51 +7087,57 @@
       <c r="M138">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B139">
-        <v>8793</v>
+        <v>3340</v>
       </c>
       <c r="C139">
-        <v>8797</v>
+        <v>3353</v>
       </c>
       <c r="D139">
-        <v>8741</v>
+        <v>3271</v>
       </c>
       <c r="E139">
-        <v>8889</v>
+        <v>3220</v>
       </c>
       <c r="F139">
-        <v>8982</v>
+        <v>3172</v>
       </c>
       <c r="G139">
-        <v>9166</v>
+        <v>3042</v>
       </c>
       <c r="H139">
-        <v>9296</v>
+        <v>3001</v>
       </c>
       <c r="I139">
-        <v>9145</v>
+        <v>3044</v>
       </c>
       <c r="J139">
-        <v>9334</v>
+        <v>2972</v>
       </c>
       <c r="K139">
-        <v>9482</v>
+        <v>2858</v>
       </c>
       <c r="L139">
-        <v>10436</v>
+        <v>2653</v>
       </c>
       <c r="M139">
-        <v>10599</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2758</v>
+      </c>
+      <c r="N139">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B140">
         <v>0.75</v>
@@ -6692,51 +7175,57 @@
       <c r="M140">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B141">
-        <v>7628</v>
+        <v>1899</v>
       </c>
       <c r="C141">
-        <v>7675</v>
+        <v>1862</v>
       </c>
       <c r="D141">
-        <v>7801</v>
+        <v>1791</v>
       </c>
       <c r="E141">
-        <v>7926</v>
+        <v>1746</v>
       </c>
       <c r="F141">
-        <v>7719</v>
+        <v>1664</v>
       </c>
       <c r="G141">
-        <v>8040</v>
+        <v>1668</v>
       </c>
       <c r="H141">
-        <v>8186</v>
+        <v>1681</v>
       </c>
       <c r="I141">
-        <v>8064</v>
+        <v>1729</v>
       </c>
       <c r="J141">
-        <v>8132</v>
+        <v>1719</v>
       </c>
       <c r="K141">
-        <v>8217</v>
+        <v>1625</v>
       </c>
       <c r="L141">
-        <v>8394</v>
+        <v>1587</v>
       </c>
       <c r="M141">
-        <v>8495</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1601</v>
+      </c>
+      <c r="N141">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B142">
         <v>0.75</v>
@@ -6774,51 +7263,57 @@
       <c r="M142">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B143">
-        <v>8513</v>
+        <v>2789</v>
       </c>
       <c r="C143">
-        <v>8511</v>
+        <v>2698</v>
       </c>
       <c r="D143">
-        <v>8684</v>
+        <v>2691</v>
       </c>
       <c r="E143">
-        <v>8812</v>
+        <v>2634</v>
       </c>
       <c r="F143">
-        <v>8946</v>
+        <v>2842</v>
       </c>
       <c r="G143">
-        <v>9180</v>
+        <v>2774</v>
       </c>
       <c r="H143">
-        <v>9380</v>
+        <v>2765</v>
       </c>
       <c r="I143">
-        <v>9413</v>
+        <v>2842</v>
       </c>
       <c r="J143">
-        <v>9629</v>
+        <v>2876</v>
       </c>
       <c r="K143">
-        <v>9811</v>
+        <v>2797</v>
       </c>
       <c r="L143">
-        <v>10254</v>
+        <v>2777</v>
       </c>
       <c r="M143">
-        <v>10471</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2804</v>
+      </c>
+      <c r="N143">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B144">
         <v>0.75</v>
@@ -6856,46 +7351,52 @@
       <c r="M144">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B145">
-        <v>6368</v>
+        <v>1956</v>
       </c>
       <c r="C145">
-        <v>6438</v>
+        <v>1887</v>
       </c>
       <c r="D145">
-        <v>6465</v>
+        <v>1862</v>
       </c>
       <c r="E145">
-        <v>6597</v>
+        <v>1892</v>
       </c>
       <c r="F145">
-        <v>6582</v>
+        <v>2006</v>
       </c>
       <c r="G145">
-        <v>6767</v>
+        <v>1963</v>
       </c>
       <c r="H145">
-        <v>6829</v>
+        <v>1981</v>
       </c>
       <c r="I145">
-        <v>6793</v>
+        <v>2052</v>
       </c>
       <c r="J145">
-        <v>6796</v>
+        <v>2079</v>
       </c>
       <c r="K145">
-        <v>6860</v>
+        <v>2047</v>
       </c>
       <c r="L145">
-        <v>7476</v>
+        <v>1871</v>
       </c>
       <c r="M145">
-        <v>7587</v>
+        <v>1914</v>
+      </c>
+      <c r="N145">
+        <v>1830</v>
       </c>
     </row>
   </sheetData>
@@ -6911,84 +7412,84 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="G1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="H1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="I1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="J1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="K1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="L1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="M1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="N1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="O1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="P1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="Q1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="R1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="S1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="T1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="U1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="V1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="W1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="X1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B2">
         <v>0.75</v>
@@ -7062,7 +7563,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B3">
         <v>5019169</v>
@@ -7136,7 +7637,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B4">
         <v>0.75</v>
@@ -7210,7 +7711,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B5">
         <v>44792013</v>
@@ -7284,7 +7785,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B6">
         <v>0.75</v>
@@ -7358,7 +7859,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B7">
         <v>6910670</v>
@@ -7432,7 +7933,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B8">
         <v>0.75</v>
@@ -7506,7 +8007,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B9">
         <v>8555521</v>
@@ -7580,7 +8081,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B10">
         <v>0.75</v>
@@ -7654,7 +8155,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B11">
         <v>6458370</v>
@@ -7728,7 +8229,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B12">
         <v>0.75</v>
@@ -7802,7 +8303,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B13">
         <v>5861987</v>
@@ -7876,7 +8377,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B14">
         <v>0.75</v>
@@ -7950,7 +8451,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B15">
         <v>7360133</v>
@@ -8024,7 +8525,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B16">
         <v>0.75</v>
@@ -8098,7 +8599,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B17">
         <v>4626163</v>
@@ -8185,13 +8686,16 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B2">
         <v>4202.29342857143</v>
@@ -8199,39 +8703,39 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B3">
-        <v>4399.6075714285698</v>
+        <v>4384.9515000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B4">
-        <v>3928.94942857143</v>
+        <v>3913.1156249999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B5">
-        <v>4529.4804285714299</v>
+        <v>4514.4044999999996</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B6">
-        <v>4666.7438571428602</v>
+        <v>4645.3871250000002</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B7">
         <v>4840.4658571428599</v>
@@ -8239,18 +8743,235 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B8">
-        <v>4176.6082857142901</v>
+        <v>4174.77225</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B9">
-        <v>4176.6218571428599</v>
+        <v>4156.009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2">
+        <v>5.9623573147967798E-11</v>
+      </c>
+      <c r="C2">
+        <v>2.2261761969063998E-9</v>
+      </c>
+      <c r="D2">
+        <v>2.4959634440303099E-9</v>
+      </c>
+      <c r="E2">
+        <v>1.18627601069206E-9</v>
+      </c>
+      <c r="F2">
+        <v>2.6150887371792699E-9</v>
+      </c>
+      <c r="G2">
+        <v>1.3580277380068E-8</v>
+      </c>
+      <c r="H2">
+        <v>2.44309931531262E-9</v>
+      </c>
+      <c r="I2">
+        <v>6.46286317961452E-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3">
+        <v>4.83862811536483E-11</v>
+      </c>
+      <c r="C3">
+        <v>1.8066172925714899E-9</v>
+      </c>
+      <c r="D3">
+        <v>2.0255669104981201E-9</v>
+      </c>
+      <c r="E3">
+        <v>9.6269341813112194E-10</v>
+      </c>
+      <c r="F3">
+        <v>2.1222418141419298E-9</v>
+      </c>
+      <c r="G3">
+        <v>1.10207883957698E-8</v>
+      </c>
+      <c r="H3">
+        <v>1.9826519084252901E-9</v>
+      </c>
+      <c r="I3">
+        <v>5.2448159598967603E-9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4">
+        <v>4.9218714185239899E-9</v>
+      </c>
+      <c r="C4">
+        <v>1.8377897436473401E-7</v>
+      </c>
+      <c r="D4">
+        <v>2.06059248530306E-7</v>
+      </c>
+      <c r="E4">
+        <v>9.7921471223728594E-8</v>
+      </c>
+      <c r="F4">
+        <v>2.15894193367773E-7</v>
+      </c>
+      <c r="G4">
+        <v>1.12103357756918E-6</v>
+      </c>
+      <c r="H4">
+        <v>2.01680786672687E-7</v>
+      </c>
+      <c r="I4">
+        <v>5.3351637975155505E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5">
+        <v>5.0249149866508895E-10</v>
+      </c>
+      <c r="C5">
+        <v>2.7494717366741501E-8</v>
+      </c>
+      <c r="D5">
+        <v>2.87268355552118E-8</v>
+      </c>
+      <c r="E5">
+        <v>2.7667840189605999E-9</v>
+      </c>
+      <c r="F5">
+        <v>8.1355803566736206E-9</v>
+      </c>
+      <c r="G5">
+        <v>4.4078508135902501E-8</v>
+      </c>
+      <c r="H5">
+        <v>9.8239857858621399E-8</v>
+      </c>
+      <c r="I5">
+        <v>7.0599215646891603E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6">
+        <v>4.8247512615153299E-10</v>
+      </c>
+      <c r="C6">
+        <v>2.6398412352619999E-8</v>
+      </c>
+      <c r="D6">
+        <v>2.75829010006024E-8</v>
+      </c>
+      <c r="E6">
+        <v>2.6565518919717399E-9</v>
+      </c>
+      <c r="F6">
+        <v>7.8114478631163805E-9</v>
+      </c>
+      <c r="G6">
+        <v>4.2321197479534798E-8</v>
+      </c>
+      <c r="H6">
+        <v>9.4323318513130699E-8</v>
+      </c>
+      <c r="I6">
+        <v>6.7784653530375205E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7">
+        <v>1.1918991649357E-6</v>
+      </c>
+      <c r="C7">
+        <v>6.5085161430456301E-5</v>
+      </c>
+      <c r="D7">
+        <v>6.8185302637843197E-5</v>
+      </c>
+      <c r="E7">
+        <v>6.5603741136798696E-6</v>
+      </c>
+      <c r="F7">
+        <v>1.9290317219564401E-5</v>
+      </c>
+      <c r="G7">
+        <v>1.04371498305353E-4</v>
+      </c>
+      <c r="H7">
+        <v>2.32621520656516E-4</v>
+      </c>
+      <c r="I7">
+        <v>1.6717610865457901E-4</v>
       </c>
     </row>
   </sheetData>
